--- a/Modulo_2/semana3/practica_sabado/data/E.xlsx
+++ b/Modulo_2/semana3/practica_sabado/data/E.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\proyectos\cocid\cocid_python\Modulo_2\semana3\practica_sabado\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74A6097C-4DFC-494C-BC53-296BD87111F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F280E7-707A-4DD1-9D40-3CAB8D971051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31395" yWindow="2595" windowWidth="17490" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V" sheetId="2" r:id="rId1"/>
@@ -68,7 +68,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -353,9 +353,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B16A4C6-B954-4510-9CAC-66FFD835717E}">
   <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -619,5 +617,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>